--- a/Data/NESDC/Draft more renames.xlsx
+++ b/Data/NESDC/Draft more renames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\Data\NESDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phata\Documents\GitHub\econvis\data\NESDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A19F0DA-AF63-43A6-B1FA-C5CBC65CD9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8504FAEE-B0F7-4A6A-B46E-8ED07C67D2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{21A14607-99D2-4800-A68C-290FB9FBF07D}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78FE61B-EAF9-4627-92C1-1530A607F72A}">
   <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
